--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Method</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t xml:space="preserve">Logistic Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Neighbors Classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussian Naive Bayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Discriminant Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Vector Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Boosting</t>
   </si>
 </sst>
 </file>
@@ -148,17 +169,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -178,10 +199,87 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.018</v>
+        <v>0.0237</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.0169</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0291</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.0376</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0323</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.0266</v>
       </c>
     </row>
   </sheetData>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Method</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,6 +523,105 @@
         <v>0.0102</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.0212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.77</v>
+      </c>
+      <c r="C12">
+        <v>0.0209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.0285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.76</v>
+      </c>
+      <c r="C15">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.7</v>
+      </c>
+      <c r="C16">
+        <v>0.0218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.79</v>
+      </c>
+      <c r="C17">
+        <v>0.0163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19">
+        <v>0.0081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Method</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C2">
-        <v>0.0212</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="C3">
-        <v>0.0209</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>0.0151</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="C5">
-        <v>0.0285</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -476,7 +476,7 @@
         <v>0.76</v>
       </c>
       <c r="C6">
-        <v>0.017</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -487,7 +487,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>0.0262</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -498,7 +498,7 @@
         <v>0.79</v>
       </c>
       <c r="C8">
-        <v>0.0163</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="C9">
-        <v>0.0111</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,109 +517,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="C10">
-        <v>0.0102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C11">
-        <v>0.0212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>0.77</v>
-      </c>
-      <c r="C12">
-        <v>0.0209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14">
-        <v>0.0285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0.76</v>
-      </c>
-      <c r="C15">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>0.7</v>
-      </c>
-      <c r="C16">
-        <v>0.0218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>0.79</v>
-      </c>
-      <c r="C17">
-        <v>0.0163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>0.8</v>
-      </c>
-      <c r="C18">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
-      </c>
-      <c r="C19">
-        <v>0.0081</v>
+        <v>0.0223</v>
       </c>
     </row>
   </sheetData>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -454,7 +454,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>0.0114</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -509,7 +509,7 @@
         <v>0.79</v>
       </c>
       <c r="C9">
-        <v>0.0166</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="C10">
-        <v>0.0223</v>
+        <v>0.0191</v>
       </c>
     </row>
   </sheetData>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>ACC CI</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>K Neighbors Classifier</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>Gaussian Naive Bayes</t>
-  </si>
-  <si>
-    <t>Linear Discriminant Analysis</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>Support Vector Machine</t>
-  </si>
-  <si>
-    <t>Gradient Boosting</t>
-  </si>
-  <si>
-    <t>VotingClassifier</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,124 +421,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.78</v>
-      </c>
-      <c r="C3">
-        <v>0.0175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.8</v>
-      </c>
-      <c r="C4">
-        <v>0.0157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.48</v>
-      </c>
-      <c r="C5">
-        <v>0.0217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.76</v>
-      </c>
-      <c r="C6">
-        <v>0.0307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.7</v>
-      </c>
-      <c r="C7">
-        <v>0.0366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.79</v>
-      </c>
-      <c r="C8">
-        <v>0.0138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.79</v>
-      </c>
-      <c r="C9">
-        <v>0.0196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.79</v>
-      </c>
-      <c r="C10">
-        <v>0.0191</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ACC CI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Logistic Regression</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0214</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>K Neighbors Classifier</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gaussian Naive Bayes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Linear Discriminant Analysis</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Support Vector Machine</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0327</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0061</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VotingClassifier</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0061</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0214</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0144</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0046</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="C5" t="n">
-        <v>0.022</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="6">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0301</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.97</v>
+        <v>0.68</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0327</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="9">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0061</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0061</v>
+        <v>0.0402</v>
       </c>
     </row>
   </sheetData>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0921</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0329</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0288</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="6">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0156</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0216</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0543</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="9">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0609</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0354</v>
+        <v>0.0256</v>
       </c>
     </row>
   </sheetData>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="C2" t="n">
-        <v>0.051</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0357</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0328</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0373</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         <v>0.47</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0274</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0597</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0308</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="9">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0658</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256</v>
+        <v>0.0267</v>
       </c>
     </row>
   </sheetData>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,123 +451,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Logistic Regression</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0375</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>K Neighbors Classifier</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0335</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Gaussian Naive Bayes</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0296</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Linear Discriminant Analysis</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0421</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0219</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Support Vector Machine</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0201</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0446</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>VotingClassifier</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0267</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/kidney_Classification_Result.xlsx
+++ b/kidney_Classification_Result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,136 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>soft_VotingClassifier</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0513</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hard_VotingClassifier</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0361</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Support Vector Machine</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Logistic Regression</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>K Neighbors Classifier</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0257</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0387</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gaussian Naive Bayes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Linear Discriminant Analysis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0428</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
